--- a/MatplotlibDemo/read.xlsx
+++ b/MatplotlibDemo/read.xlsx
@@ -360,8 +360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -384,7 +384,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>17534</v>
+        <v>17900</v>
       </c>
       <c r="B3">
         <v>5.0999999999999996</v>
@@ -392,7 +392,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>17535</v>
+        <v>18266</v>
       </c>
       <c r="B4">
         <v>6.1</v>
@@ -400,7 +400,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>17536</v>
+        <v>18632</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>17538</v>
+        <v>18634</v>
       </c>
       <c r="B7">
         <v>9.1</v>
